--- a/output/google_maps_data_SMA_Kulon_Progo.xlsx
+++ b/output/google_maps_data_SMA_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -511,25 +506,24 @@
           <t>(0274) 773123</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.5</v>
+        <v>-7.857358</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.857358</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.174535</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pengasih(SMAPTA)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb10736a8ce3:0xf053419e5b30c38d!8m2!3d-7.8573577!4d110.1745352!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU10YnpSMlRVbEJFQUXgAQD6AQQIABAc!16s%2Fg%2F1hm6jrq4b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Pengasih(SMAPTA)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb10736a8ce3:0xf053419e5b30c38d!8m2!3d-7.8573577!4d110.1745352!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU10YnpSMlRVbEJFQUXgAQD6AQQIABAc!16s%2Fg%2F1hm6jrq4b?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -556,25 +550,24 @@
           <t>(0274) 7723569</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>-7.816034</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.816034</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.227044</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sentolo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afa1baae99617:0xaa4e3041d3340499!8m2!3d-7.8160337!4d110.2270436!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxTm1SNUxUSm5SUkFC4AEA-gEECAAQHw!16s%2Fg%2F1hm6bz4m1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Sentolo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afa1baae99617:0xaa4e3041d3340499!8m2!3d-7.8160337!4d110.2270436!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxTm1SNUxUSm5SUkFC4AEA-gEECAAQHw!16s%2Fg%2F1hm6bz4m1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>31 menit lalu</t>
         </is>
@@ -597,25 +590,24 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>-7.773371</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.773371</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.191904</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Girimulyo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af0f9c349ad63:0x878e153086e771d6!8m2!3d-7.7733711!4d110.1919042!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxTVZwbWIzZEJSUkFC4AEA-gEECAAQPg!16s%2Fg%2F1hm2y7qnx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Girimulyo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af0f9c349ad63:0x878e153086e771d6!8m2!3d-7.7733711!4d110.1919042!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVIxTVZwbWIzZEJSUkFC4AEA-gEECAAQPg!16s%2Fg%2F1hm2y7qnx?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -642,25 +634,24 @@
           <t>(0274) 773055</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.7</v>
+        <v>-7.89412</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.89412</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.146731</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+2+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae359d3ced19f:0x35c6a617f4881767!8m2!3d-7.8941203!4d110.1467311!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJsY3psMloxWkJFQUXgAQD6AQQIABAk!16s%2Fg%2F1tgv9rh3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+2+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae359d3ced19f:0x35c6a617f4881767!8m2!3d-7.8941203!4d110.1467311!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJsY3psMloxWkJFQUXgAQD6AQQIABAk!16s%2Fg%2F1tgv9rh3?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -687,25 +678,24 @@
           <t>(0274) 2549774</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.7</v>
+        <v>-7.7128</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.7128</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.215612</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kalibawang/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af3e06b7f05c5:0x198593f156ba982b!8m2!3d-7.7128001!4d110.2156119!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xYjFvM2N6bG5SUkFC4AEA-gEECAAQOg!16s%2Fg%2F1pzpjywr1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kalibawang/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af3e06b7f05c5:0x198593f156ba982b!8m2!3d-7.7128001!4d110.2156119!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xYjFvM2N6bG5SUkFC4AEA-gEECAAQOg!16s%2Fg%2F1pzpjywr1?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -732,25 +722,24 @@
           <t>(0274) 7102507</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>-7.929692</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.929692</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.231985</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Lendah./@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afdd44e3a8b29:0x9b17026365a8d9f8!8m2!3d-7.9296924!4d110.2319846!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5xWDJWUWJqVjNSUkFC4AEA-gEECAAQHg!16s%2Fg%2F1hm6h1_b8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Lendah./@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afdd44e3a8b29:0x9b17026365a8d9f8!8m2!3d-7.9296924!4d110.2319846!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5xWDJWUWJqVjNSUkFC4AEA-gEECAAQHg!16s%2Fg%2F1hm6h1_b8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -777,25 +766,24 @@
           <t>(0274) 773067</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.3</v>
+        <v>-7.855401</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.855401</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.158339</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae35400000001:0xe6ed43bc2ae65c71!8m2!3d-7.855401!4d110.158339!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDZDBrdFpqTm5SUkFC4AEA-gEECAAQPw!16s%2Fg%2F1pz2tw1lh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae35400000001:0xe6ed43bc2ae65c71!8m2!3d-7.855401!4d110.158339!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJDZDBrdFpqTm5SUkFC4AEA-gEECAAQPw!16s%2Fg%2F1pz2tw1lh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -822,25 +810,24 @@
           <t>0811-2655-422</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>-7.879584</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.879584</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.072803</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Temon/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae3582e3e6b0b:0x16f48c810fcc8aff!8m2!3d-7.879584!4d110.0728027!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF4TFUxVVl6bG5SUkFC4AEA-gEECAAQPg!16s%2Fg%2F1pzq46trz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Temon/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae3582e3e6b0b:0x16f48c810fcc8aff!8m2!3d-7.879584!4d110.0728027!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF4TFUxVVl6bG5SUkFC4AEA-gEECAAQPg!16s%2Fg%2F1pzq46trz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -867,25 +854,24 @@
           <t>0851-0010-4022</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F10" t="n">
-        <v>3.8</v>
+        <v>-7.934313</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.934313</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.201317</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Galur/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afdb194c072b9:0x50d3661027d001a0!8m2!3d-7.9343127!4d110.2013174!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQT1hWVVoxQm5FQUXgAQD6AQQIABAS!16s%2Fg%2F1hm4181lw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Galur/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afdb194c072b9:0x50d3661027d001a0!8m2!3d-7.9343127!4d110.2013174!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJQT1hWVVoxQm5FQUXgAQD6AQQIABAS!16s%2Fg%2F1hm4181lw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>14 jam lalu</t>
         </is>
@@ -908,25 +894,24 @@
           <t>(0274) 7721351</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>-7.865617</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.865617</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.159248</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+MA'ARIF+WATES/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3ebb159d95:0xe699ce4ca9118e4e!8m2!3d-7.8656167!4d110.1592483!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MTUhGTVh6ZEJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F1hm3pzr45?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+MA'ARIF+WATES/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3ebb159d95:0xe699ce4ca9118e4e!8m2!3d-7.8656167!4d110.1592483!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MTUhGTVh6ZEJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F1hm3pzr45?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -945,25 +930,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.839058</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.839058</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.097474</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kokap/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae508b8c40a03:0x272070de7ba85540!8m2!3d-7.8390582!4d110.0974736!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJxYURseFN6Tm5SUkFC4AEA-gEECAAQRg!16s%2Fg%2F1hm32g0y7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Kokap/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae508b8c40a03:0x272070de7ba85540!8m2!3d-7.8390582!4d110.0974736!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJxYURseFN6Tm5SUkFC4AEA-gEECAAQRg!16s%2Fg%2F1hm32g0y7?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -986,25 +970,24 @@
           <t>(0274) 6522887</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.2</v>
+        <v>-7.757254</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.757254</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.210932</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Sanjaya+XIV+Nanggulan/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af118b22cf9cf:0xa27f2a76af87475!8m2!3d-7.7572545!4d110.2109316!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14YW1OWWIxQjNFQUXgAQD6AQQIABAz!16s%2Fg%2F11c4bczg0c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Sanjaya+XIV+Nanggulan/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af118b22cf9cf:0xa27f2a76af87475!8m2!3d-7.7572545!4d110.2109316!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU14YW1OWWIxQjNFQUXgAQD6AQQIABAz!16s%2Fg%2F11c4bczg0c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1031,25 +1014,24 @@
           <t>(0274) 2890500</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>-7.885991</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.885991</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.141458</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMAIT+Abu+Bakar+Boarding+School+Kulon+Progo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae4adaaaaaa97:0xaad2cc324cf5d3f6!8m2!3d-7.8859906!4d110.1414584!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJLYzAxUGRrUlJFQUXgAQD6AQQIABAe!16s%2Fg%2F11g87646bw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMAIT+Abu+Bakar+Boarding+School+Kulon+Progo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae4adaaaaaa97:0xaad2cc324cf5d3f6!8m2!3d-7.8859906!4d110.1414584!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJLYzAxUGRrUlJFQUXgAQD6AQQIABAe!16s%2Fg%2F11g87646bw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1076,25 +1058,24 @@
           <t>(0274) 7104153</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.5</v>
+        <v>-7.661624</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.661624</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.161455</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Negeri+1+Samigaluh/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af29578997e05:0xcf9b4ca355b2da98!8m2!3d-7.6616242!4d110.1614551!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJITjA1bVN6SkJSUkFC4AEA-gEECAAQKQ!16s%2Fg%2F1hm5mmd17?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Negeri+1+Samigaluh/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af29578997e05:0xcf9b4ca355b2da98!8m2!3d-7.6616242!4d110.1614551!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEGc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJITjA1bVN6SkJSUkFC4AEA-gEECAAQKQ!16s%2Fg%2F1hm5mmd17?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1117,25 +1098,24 @@
           <t>(0274) 773528</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>-7.858109</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.858109</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.160806</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+BOPKRI/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3cd6df2467:0x2123726f9a218c8!8m2!3d-7.8581086!4d110.160806!15sCg9TTUEgS3Vsb24gUHJvZ2-SAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11c540_bt2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+BOPKRI/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3cd6df2467:0x2123726f9a218c8!8m2!3d-7.8581086!4d110.160806!15sCg9TTUEgS3Vsb24gUHJvZ2-SAQtoaWdoX3NjaG9vbOABAA!16s%2Fg%2F11c540_bt2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1154,25 +1134,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>-7.912197</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.912197</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.258151</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+IT+AL+GHIFARI+LENDAH+KULON+PROGO/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7affef27cac22f:0x95a15754a8d5e5b2!8m2!3d-7.9121975!4d110.2581509!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUldhWFJ1WVc1M1JSQULgAQD6AQQIABAy!16s%2Fg%2F11ptybqzdt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+IT+AL+GHIFARI+LENDAH+KULON+PROGO/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7affef27cac22f:0x95a15754a8d5e5b2!8m2!3d-7.9121975!4d110.2581509!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgELaGlnaF9zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUldhWFJ1WVc1M1JSQULgAQD6AQQIABAy!16s%2Fg%2F11ptybqzdt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1191,25 +1170,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.5</v>
+        <v>-7.868185</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.868185</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.150958</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb37e1d32a41:0x614b800a84dddcf8!8m2!3d-7.8681853!4d110.1509576!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5oYmpWMVUxVlJFQUXgAQD6AQQIABBH!16s%2Fg%2F1hm2rm1cg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb37e1d32a41:0x614b800a84dddcf8!8m2!3d-7.8681853!4d110.1509576!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5oYmpWMVUxVlJFQUXgAQD6AQQIABBH!16s%2Fg%2F1hm2rm1cg?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1232,25 +1210,24 @@
           <t>(0274) 6560331</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>-7.857139</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.857139</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.158874</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Bopkri+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb2345354bc5:0x1bb8e417c4c09d83!8m2!3d-7.8571389!4d110.158874!15sCg9TTUEgS3Vsb24gUHJvZ2-SARJzZW5pb3JfaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11b6s3v2zs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Bopkri+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb2345354bc5:0x1bb8e417c4c09d83!8m2!3d-7.8571389!4d110.158874!15sCg9TTUEgS3Vsb24gUHJvZ2-SARJzZW5pb3JfaGlnaF9zY2hvb2zgAQA!16s%2Fg%2F11b6s3v2zs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -1273,25 +1250,24 @@
           <t>(0274) 773029</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.7</v>
+        <v>-7.858181</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.858181</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.174364</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+2+Pengasih/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb1aa426c607:0xe338787c70338a16!8m2!3d-7.8581809!4d110.1743638!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFOMGxYZUV4bkVBReABAPoBBAgAECI!16s%2Fg%2F1td5byhs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+2+Pengasih/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb1aa426c607:0xe338787c70338a16!8m2!3d-7.8581809!4d110.1743638!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFOMGxYZUV4bkVBReABAPoBBAgAECI!16s%2Fg%2F1td5byhs?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1314,25 +1290,24 @@
           <t>(0274) 7103191</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>3.4</v>
+      </c>
       <c r="F21" t="n">
-        <v>3.4</v>
+        <v>-7.94015</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.94015</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.234274</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Al+Manar+Galur/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afddecb213d21:0xb9c85e231159283e!8m2!3d-7.94015!4d110.2342743!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmtjMkZ5YzFabkVBReABAPoBBAgAEBs!16s%2Fg%2F1pzq8cchm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMA+Muhammadiyah+Al+Manar+Galur/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afddecb213d21:0xb9c85e231159283e!8m2!3d-7.94015!4d110.2342743!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgELaGlnaF9zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmtjMkZ5YzFabkVBReABAPoBBAgAEBs!16s%2Fg%2F1pzq8cchm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1359,25 +1334,24 @@
           <t>(0274) 773081</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.5</v>
+        <v>-7.847827</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.847827</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.168028</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Pengasih/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afc5342a1d6f7:0x6760b0382938aa8f!8m2!3d-7.8478266!4d110.1680276!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnROSEp1UlMxQlJSQULgAQD6AQQIABAq!16s%2Fg%2F1hm4zq43r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Pengasih/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afc5342a1d6f7:0x6760b0382938aa8f!8m2!3d-7.8478266!4d110.1680276!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnROSEp1UlMxQlJSQULgAQD6AQQIABAq!16s%2Fg%2F1hm4zq43r?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -1400,25 +1374,24 @@
           <t>0811-2649-275</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.7</v>
+        <v>-7.90241</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.90241</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.177008</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Negeri+1+Panjatan/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afc9bac7ccb7d:0x526077b3431eb38b!8m2!3d-7.90241!4d110.1770079!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhNemgyTVROQlJSQULgAQD6AQQIABA1!16s%2Fg%2F1pzsyx309?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Negeri+1+Panjatan/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afc9bac7ccb7d:0x526077b3431eb38b!8m2!3d-7.90241!4d110.1770079!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhNemgyTVROQlJSQULgAQD6AQQIABA1!16s%2Fg%2F1pzsyx309?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1445,25 +1418,24 @@
           <t>(0274) 773565</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.7</v>
+        <v>-7.864193</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.864193</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.158351</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Ma'arif+1+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb394ad01d69:0x65bc580f4e1a12b6!8m2!3d-7.8641934!4d110.1583512!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnNYM1l5VjBGbkVBReABAPoBBAgUECo!16s%2Fg%2F1td35nrm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Ma'arif+1+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb394ad01d69:0x65bc580f4e1a12b6!8m2!3d-7.8641934!4d110.1583512!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnNYM1l5VjBGbkVBReABAPoBBAgUECo!16s%2Fg%2F1td35nrm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1490,25 +1462,24 @@
           <t>(0274) 773344</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.3</v>
+        <v>-7.864979</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.864979</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.159678</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3ee855e49d:0x15c51174b30adbe0!8m2!3d-7.8649787!4d110.1596781!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTJOelpxVEhSM1JSQULgAQD6AQQIUBA5!16s%2Fg%2F1hm3wygmm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+1+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3ee855e49d:0x15c51174b30adbe0!8m2!3d-7.8649787!4d110.1596781!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTJOelpxVEhSM1JSQULgAQD6AQQIUBA5!16s%2Fg%2F1hm3wygmm?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1535,25 +1506,24 @@
           <t>(0274) 7402258</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.4</v>
+        <v>-7.675601</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.675601</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.262065</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MAN+3+Kulon+Progo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af47ad2080005:0x2d13ad5abff12edc!8m2!3d-7.6756007!4d110.262065!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJxTW05UFlqbG5SUkFC4AEA-gEFCK8BEEc!16s%2Fg%2F11bc7mhrjw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MAN+3+Kulon+Progo/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af47ad2080005:0x2d13ad5abff12edc!8m2!3d-7.6756007!4d110.262065!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJxTW05UFlqbG5SUkFC4AEA-gEFCK8BEEc!16s%2Fg%2F11bc7mhrjw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1581,22 +1551,21 @@
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-7.806324</v>
+      </c>
       <c r="G27" t="n">
-        <v>-7.806324</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.22731</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SMA+SiBOS+-+Sentolo+Property+Boarding+School/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb0e12abea03:0xed25c7edfb3817ed!8m2!3d-7.8063237!4d110.22731!15sCg9TTUEgS3Vsb24gUHJvZ2-SARBlZHVjYXRpb25fY2VudGVy4AEA!16s%2Fg%2F11y9y8hcrb?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1619,25 +1588,24 @@
           <t>0859-6235-4929</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.4</v>
+        <v>-7.882674</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.882674</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.04672</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Ma%E2%80%99arif+2+Temon/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae41d6fc793a9:0x541b19cfaa85b029!8m2!3d-7.8826744!4d110.0467198!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTFjSEkzY2kxblJSQULgAQD6AQQIABBB!16s%2Fg%2F1pzrbn368?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Ma%E2%80%99arif+2+Temon/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae41d6fc793a9:0x541b19cfaa85b029!8m2!3d-7.8826744!4d110.0467198!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTFjSEkzY2kxblJSQULgAQD6AQQIABBB!16s%2Fg%2F1pzrbn368?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1664,25 +1632,24 @@
           <t>(0274) 773301</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.8</v>
+        <v>-7.865698</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.865698</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.154402</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MAN+2+KULON+PROGO+(Gedung+Pembelajaran)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb384d4ce7ad:0x885052c82948f444!8m2!3d-7.8656979!4d110.1544023!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5xZFhacVlWOW5SUkFC4AEA-gEFCLMDEDY!16s%2Fg%2F1hm4d7yd2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MAN+2+KULON+PROGO+(Gedung+Pembelajaran)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb384d4ce7ad:0x885052c82948f444!8m2!3d-7.8656979!4d110.1544023!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgESc2VuaW9yX2hpZ2hfc2Nob29smgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5xZFhacVlWOW5SUkFC4AEA-gEFCLMDEDY!16s%2Fg%2F1hm4d7yd2?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1705,25 +1672,24 @@
           <t>(0274) 773236</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.2</v>
+        <v>-7.863575</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.863575</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.159062</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Ma'arif+3+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3c2df4622f:0x5be3730096a56455!8m2!3d-7.8635751!4d110.1590622!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkJlR1JmUjE5QlJSQULgAQD6AQUIoQEQPw!16s%2Fg%2F11c4kqx6lv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Ma'arif+3+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb3c2df4622f:0x5be3730096a56455!8m2!3d-7.8635751!4d110.1590622!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkJlR1JmUjE5QlJSQULgAQD6AQUIoQEQPw!16s%2Fg%2F11c4kqx6lv?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1742,25 +1708,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.5</v>
+        <v>-7.761615</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.761615</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.210466</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMP+Negeri+1+Nanggulan/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af11fe9dc434d:0xf21674779ec91136!8m2!3d-7.7616149!4d110.210466!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNU5IRjFZa1YzRUFF4AEA-gEECCgQPw!16s%2Fg%2F1hm6n33m8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMP+Negeri+1+Nanggulan/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7af11fe9dc434d:0xf21674779ec91136!8m2!3d-7.7616149!4d110.210466!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgENbWlkZGxlX3NjaG9vbJoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSNU5IRjFZa1YzRUFF4AEA-gEECCgQPw!16s%2Fg%2F1hm6n33m8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1787,25 +1752,24 @@
           <t>(0274) 773646</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.6</v>
+        <v>-7.893009</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.893009</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.152691</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Wates+(UNIT+1)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afca626d83abf:0x73020c463a67f753!8m2!3d-7.8930087!4d110.1526906!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBjWFpRUkRsblJSQULgAQD6AQQIABA0!16s%2Fg%2F11fzsthw1z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+2+Wates+(UNIT+1)/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afca626d83abf:0x73020c463a67f753!8m2!3d-7.8930087!4d110.1526906!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBjWFpRUkRsblJSQULgAQD6AQQIABA0!16s%2Fg%2F11fzsthw1z?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1832,25 +1796,24 @@
           <t>0813-2622-3499</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>-7.894307</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.894307</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.089712</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMKN+1+Temon/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae395e51b55e7:0x2bb9b96d5dfd4d64!8m2!3d-7.8943068!4d110.0897124!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXllVjloWW5KM1JSQULgAQD6AQQIABAr!16s%2Fg%2F11dx8_m_p_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMKN+1+Temon/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7ae395e51b55e7:0x2bb9b96d5dfd4d64!8m2!3d-7.8943068!4d110.0897124!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2yaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXllVjloWW5KM1JSQULgAQD6AQQIABAr!16s%2Fg%2F11dx8_m_p_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1877,25 +1840,24 @@
           <t>(0274) 775320</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.5</v>
+        <v>-7.868427</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.868427</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.151045</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+3+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb37cc2816ed:0xe52b415d697176d6!8m2!3d-7.8684271!4d110.1510452!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F11b6nkrqjf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SMK+Muhammadiyah+3+Wates/@-7.8573577,109.8861441,11z/data=!4m10!1m2!2m1!1sSMA+Kulon+Progo!3m6!1s0x2e7afb37cc2816ed:0xe52b415d697176d6!8m2!3d-7.8684271!4d110.1510452!15sCg9TTUEgS3Vsb24gUHJvZ29aESIPc21hIGt1bG9uIHByb2dvkgEadm9jYXRpb25hbF90cmFpbmluZ19zY2hvb2zgAQA!16s%2Fg%2F11b6nkrqjf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
